--- a/software/fx/FX.xlsx
+++ b/software/fx/FX.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yoshida\GoogleDrive\program\github\birdwatcherYT.github.io\software\fx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7212"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$7</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>買い/売り</t>
     <phoneticPr fontId="1"/>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>YYY/JPY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通貨数</t>
+    <rPh sb="0" eb="3">
+      <t>ツウカスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本数</t>
+    <rPh sb="0" eb="2">
+      <t>ホンスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>間隔</t>
+    <rPh sb="0" eb="2">
+      <t>カンカク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -131,9 +152,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0.0000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -207,7 +229,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -246,6 +268,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,73 +558,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="8.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="1.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.08984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="1.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.77734375" style="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13"/>
+      <c r="C1" s="15"/>
       <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="H1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="6" t="s">
+      <c r="K1" s="11"/>
+      <c r="L1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="O1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="7" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -607,41 +647,52 @@
         <v>140</v>
       </c>
       <c r="D2" s="2">
-        <f>(B2+C2)/2</f>
+        <f t="shared" ref="D2:D8" si="0">(B2+C2)/2</f>
         <v>137.5</v>
       </c>
       <c r="E2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3">
+        <f t="shared" ref="G2:G8" si="1">E2*F2</f>
         <v>20000</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="14">
+        <f>IF(F2=1,0,ABS(C2-B2)/(F2-1))</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
-        <f>(IF(F2="買い",1,-1)*(D2-SUMIFS(K:K,I:I,A2,J:J,F2))*E2+SUMIFS(K:K,I:I,A2,J:J,F2)*E2/25)*SUMIFS(L:L,I:I,A2,J:J,F2)</f>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J8" si="2">(IF(I2="買い",1,-1)*(D2-SUMIFS(N:N,L:L,A2,M:M,I2))*G2+SUMIFS(N:N,L:L,A2,M:M,I2)*G2/25)*SUMIFS(O:O,L:L,A2,M:M,I2)</f>
         <v>578000</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2">
+      <c r="N2">
         <v>160</v>
       </c>
-      <c r="L2">
+      <c r="O2">
         <v>1</v>
       </c>
-      <c r="M2" s="3">
-        <f>SUMIFS(G:G,A:A,I2,F:F,J2)</f>
+      <c r="P2" s="3">
+        <f>SUMIFS(J:J,A:A,L2,I:I,M2)</f>
         <v>1056000</v>
       </c>
-      <c r="O2" s="3">
-        <f>SUM(M:M)</f>
+      <c r="R2" s="3">
+        <f>SUM(P:P)</f>
         <v>3261960</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -652,37 +703,48 @@
         <v>145</v>
       </c>
       <c r="D3" s="2">
-        <f>(B3+C3)/2</f>
+        <f t="shared" si="0"/>
         <v>142.5</v>
       </c>
       <c r="E3" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F3" s="3">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="14">
+        <f t="shared" ref="H3:H8" si="3">IF(F3=1,0,ABS(C3-B3)/(F3-1))</f>
+        <v>0.26315789473684209</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="3">
-        <f>(IF(F3="買い",1,-1)*(D3-SUMIFS(K:K,I:I,A3,J:J,F3))*E3+SUMIFS(K:K,I:I,A3,J:J,F3)*E3/25)*SUMIFS(L:L,I:I,A3,J:J,F3)</f>
+      <c r="J3" s="3">
+        <f t="shared" si="2"/>
         <v>478000</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>68</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="M3" s="3">
-        <f>SUMIFS(G:G,A:A,I3,F:F,J3)</f>
+      <c r="P3" s="3">
+        <f>SUMIFS(J:J,A:A,L3,I:I,M3)</f>
         <v>1483200</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
@@ -693,37 +755,48 @@
         <v>90</v>
       </c>
       <c r="D4" s="2">
-        <f>(B4+C4)/2</f>
+        <f t="shared" si="0"/>
         <v>85</v>
       </c>
       <c r="E4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F4" s="3">
+        <v>30</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="14">
+        <f t="shared" si="3"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="3">
-        <f>(IF(F4="買い",1,-1)*(D4-SUMIFS(K:K,I:I,A4,J:J,F4))*E4+SUMIFS(K:K,I:I,A4,J:J,F4)*E4/25)*SUMIFS(L:L,I:I,A4,J:J,F4)</f>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
         <v>591600</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>0.98</v>
       </c>
-      <c r="L4">
+      <c r="O4">
         <v>200</v>
       </c>
-      <c r="M4" s="3">
-        <f>SUMIFS(G:G,A:A,I4,F:F,J4)</f>
+      <c r="P4" s="3">
+        <f>SUMIFS(J:J,A:A,L4,I:I,M4)</f>
         <v>278359.99999999994</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -734,37 +807,48 @@
         <v>100</v>
       </c>
       <c r="D5" s="2">
-        <f>(B5+C5)/2</f>
+        <f t="shared" si="0"/>
         <v>95</v>
       </c>
       <c r="E5" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="14">
+        <f t="shared" si="3"/>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="3">
-        <f>(IF(F5="買い",1,-1)*(D5-SUMIFS(K:K,I:I,A5,J:J,F5))*E5+SUMIFS(K:K,I:I,A5,J:J,F5)*E5/25)*SUMIFS(L:L,I:I,A5,J:J,F5)</f>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
         <v>891600</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1.5</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>110</v>
       </c>
-      <c r="M5" s="3">
-        <f>SUMIFS(G:G,A:A,I5,F:F,J5)</f>
+      <c r="P5" s="3">
+        <f>SUMIFS(J:J,A:A,L5,I:I,M5)</f>
         <v>230999.99999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -775,37 +859,48 @@
         <v>0.92</v>
       </c>
       <c r="D6" s="2">
-        <f>(B6+C6)/2</f>
+        <f t="shared" si="0"/>
         <v>0.88002000000000002</v>
       </c>
       <c r="E6" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="14">
+        <f t="shared" si="3"/>
+        <v>8.8844444444444483E-3</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3">
-        <f>(IF(F6="買い",1,-1)*(D6-SUMIFS(K:K,I:I,A6,J:J,F6))*E6+SUMIFS(K:K,I:I,A6,J:J,F6)*E6/25)*SUMIFS(L:L,I:I,A6,J:J,F6)</f>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
         <v>278359.99999999994</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>110</v>
       </c>
-      <c r="M6" s="3">
-        <f>SUMIFS(G:G,A:A,I6,F:F,J6)</f>
+      <c r="P6" s="3">
+        <f>SUMIFS(J:J,A:A,L6,I:I,M6)</f>
         <v>213399.99999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -816,21 +911,32 @@
         <v>1.4</v>
       </c>
       <c r="D7" s="2">
-        <f>(B7+C7)/2</f>
+        <f t="shared" si="0"/>
         <v>1.35</v>
       </c>
       <c r="E7" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="14">
+        <f t="shared" si="3"/>
+        <v>1.1111111111111096E-2</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3">
-        <f>(IF(F7="買い",1,-1)*(D7-SUMIFS(K:K,I:I,A7,J:J,F7))*E7+SUMIFS(K:K,I:I,A7,J:J,F7)*E7/25)*SUMIFS(L:L,I:I,A7,J:J,F7)</f>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
         <v>230999.99999999991</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
@@ -841,17 +947,28 @@
         <v>1.3</v>
       </c>
       <c r="D8" s="2">
-        <f>(B8+C8)/2</f>
+        <f t="shared" si="0"/>
         <v>1.25</v>
       </c>
       <c r="E8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="H8" s="14">
+        <f t="shared" si="3"/>
+        <v>1.111111111111112E-2</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3">
-        <f>(IF(F8="買い",1,-1)*(D8-SUMIFS(K:K,I:I,A8,J:J,F8))*E8+SUMIFS(K:K,I:I,A8,J:J,F8)*E8/25)*SUMIFS(L:L,I:I,A8,J:J,F8)</f>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
         <v>213399.99999999991</v>
       </c>
     </row>
@@ -860,8 +977,8 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J1048576 F2:F1048576">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M1048576 I2:I1048576">
       <formula1>"買い,売り"</formula1>
     </dataValidation>
   </dataValidations>
